--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N2">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O2">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P2">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q2">
-        <v>431.546679694587</v>
+        <v>702.1083993137067</v>
       </c>
       <c r="R2">
-        <v>431.546679694587</v>
+        <v>6318.97559382336</v>
       </c>
       <c r="S2">
-        <v>0.001932010574198835</v>
+        <v>0.002063924102329459</v>
       </c>
       <c r="T2">
-        <v>0.001932010574198835</v>
+        <v>0.002177787507595363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N3">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P3">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q3">
-        <v>828.5558940957993</v>
+        <v>1329.86175644415</v>
       </c>
       <c r="R3">
-        <v>828.5558940957993</v>
+        <v>11968.75580799735</v>
       </c>
       <c r="S3">
-        <v>0.003709398829903531</v>
+        <v>0.003909273460585541</v>
       </c>
       <c r="T3">
-        <v>0.003709398829903531</v>
+        <v>0.004124941850637048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N4">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O4">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P4">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q4">
-        <v>791.6224198811744</v>
+        <v>1508.816318258784</v>
       </c>
       <c r="R4">
-        <v>791.6224198811744</v>
+        <v>13579.34686432906</v>
       </c>
       <c r="S4">
-        <v>0.003544049712225103</v>
+        <v>0.004435329883941337</v>
       </c>
       <c r="T4">
-        <v>0.003544049712225103</v>
+        <v>0.004680019968956184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N5">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O5">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P5">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q5">
-        <v>738.722535296354</v>
+        <v>1129.177262712784</v>
       </c>
       <c r="R5">
-        <v>738.722535296354</v>
+        <v>10162.59536441506</v>
       </c>
       <c r="S5">
-        <v>0.003307219859973425</v>
+        <v>0.003319339535879871</v>
       </c>
       <c r="T5">
-        <v>0.003307219859973425</v>
+        <v>0.003502462210963926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N6">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O6">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P6">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q6">
-        <v>332.0947511737274</v>
+        <v>501.360989844386</v>
       </c>
       <c r="R6">
-        <v>332.0947511737274</v>
+        <v>3008.165939066316</v>
       </c>
       <c r="S6">
-        <v>0.001486769800563989</v>
+        <v>0.001473805229960282</v>
       </c>
       <c r="T6">
-        <v>0.001486769800563989</v>
+        <v>0.001036741811327152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N7">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O7">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P7">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q7">
-        <v>5727.516536205902</v>
+        <v>6897.267440880962</v>
       </c>
       <c r="R7">
-        <v>5727.516536205902</v>
+        <v>62075.40696792864</v>
       </c>
       <c r="S7">
-        <v>0.02564177418693111</v>
+        <v>0.02027526878379638</v>
       </c>
       <c r="T7">
-        <v>0.02564177418693111</v>
+        <v>0.02139382306774457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N8">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P8">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q8">
-        <v>10996.64951185136</v>
+        <v>13064.09694366398</v>
       </c>
       <c r="R8">
-        <v>10996.64951185136</v>
+        <v>117576.8724929758</v>
       </c>
       <c r="S8">
-        <v>0.04923139057098343</v>
+        <v>0.03840333570080154</v>
       </c>
       <c r="T8">
-        <v>0.04923139057098343</v>
+        <v>0.04052198656181315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N9">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O9">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P9">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q9">
-        <v>10506.46595985762</v>
+        <v>14822.08399211361</v>
       </c>
       <c r="R9">
-        <v>10506.46595985762</v>
+        <v>133398.7559290224</v>
       </c>
       <c r="S9">
-        <v>0.04703686596840628</v>
+        <v>0.04357113008187551</v>
       </c>
       <c r="T9">
-        <v>0.04703686596840628</v>
+        <v>0.04597487992752467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N10">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O10">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P10">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q10">
-        <v>9804.37513636346</v>
+        <v>11092.64264137102</v>
       </c>
       <c r="R10">
-        <v>9804.37513636346</v>
+        <v>99833.78377233914</v>
       </c>
       <c r="S10">
-        <v>0.04389364425251063</v>
+        <v>0.03260803107957663</v>
       </c>
       <c r="T10">
-        <v>0.04389364425251063</v>
+        <v>0.03440696421551244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N11">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O11">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P11">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q11">
-        <v>4407.583856932561</v>
+        <v>4925.195076375189</v>
       </c>
       <c r="R11">
-        <v>4407.583856932561</v>
+        <v>29551.17045825113</v>
       </c>
       <c r="S11">
-        <v>0.01973250871560027</v>
+        <v>0.01447814730138735</v>
       </c>
       <c r="T11">
-        <v>0.01973250871560027</v>
+        <v>0.01018458908461476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N12">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O12">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P12">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q12">
-        <v>6316.94029700817</v>
+        <v>7944.89468978585</v>
       </c>
       <c r="R12">
-        <v>6316.94029700817</v>
+        <v>71504.05220807264</v>
       </c>
       <c r="S12">
-        <v>0.02828059170572179</v>
+        <v>0.02335488317294971</v>
       </c>
       <c r="T12">
-        <v>0.02828059170572179</v>
+        <v>0.02464333487747606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N13">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P13">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q13">
-        <v>12128.32437835355</v>
+        <v>15048.40508566773</v>
       </c>
       <c r="R13">
-        <v>12128.32437835355</v>
+        <v>135435.6457710095</v>
       </c>
       <c r="S13">
-        <v>0.05429783624537637</v>
+        <v>0.04423642558369332</v>
       </c>
       <c r="T13">
-        <v>0.05429783624537637</v>
+        <v>0.04667687872248177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N14">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O14">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P14">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q14">
-        <v>11587.69560618922</v>
+        <v>17073.41311756678</v>
       </c>
       <c r="R14">
-        <v>11587.69560618922</v>
+        <v>153660.718058101</v>
       </c>
       <c r="S14">
-        <v>0.05187747118712399</v>
+        <v>0.0501891572253209</v>
       </c>
       <c r="T14">
-        <v>0.05187747118712399</v>
+        <v>0.05295801308714787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N15">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O15">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P15">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q15">
-        <v>10813.35199896363</v>
+        <v>12777.50621858795</v>
       </c>
       <c r="R15">
-        <v>10813.35199896363</v>
+        <v>114997.5559672915</v>
       </c>
       <c r="S15">
-        <v>0.04841077776178727</v>
+        <v>0.03756087105350966</v>
       </c>
       <c r="T15">
-        <v>0.04841077776178727</v>
+        <v>0.03963304448182473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N16">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O16">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P16">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q16">
-        <v>4861.172185588093</v>
+        <v>5673.283882907505</v>
       </c>
       <c r="R16">
-        <v>4861.172185588093</v>
+        <v>34039.70329744503</v>
       </c>
       <c r="S16">
-        <v>0.02176319853093117</v>
+        <v>0.01667723581819493</v>
       </c>
       <c r="T16">
-        <v>0.02176319853093117</v>
+        <v>0.01173152823629987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N17">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O17">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P17">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q17">
-        <v>16215.79342472435</v>
+        <v>27782.95819349255</v>
       </c>
       <c r="R17">
-        <v>16215.79342472435</v>
+        <v>250046.623741433</v>
       </c>
       <c r="S17">
-        <v>0.07259720869075743</v>
+        <v>0.08167103129034103</v>
       </c>
       <c r="T17">
-        <v>0.07259720869075743</v>
+        <v>0.08617669199937615</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N18">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O18">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P18">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q18">
-        <v>31133.80742264993</v>
+        <v>52623.63136308815</v>
       </c>
       <c r="R18">
-        <v>31133.80742264993</v>
+        <v>473612.6822677933</v>
       </c>
       <c r="S18">
-        <v>0.139384330794063</v>
+        <v>0.1546928953257684</v>
       </c>
       <c r="T18">
-        <v>0.139384330794063</v>
+        <v>0.1632270559629518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N19">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O19">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P19">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q19">
-        <v>29745.99559022986</v>
+        <v>59704.99816384236</v>
       </c>
       <c r="R19">
-        <v>29745.99559022986</v>
+        <v>537344.9834745813</v>
       </c>
       <c r="S19">
-        <v>0.1331711741150882</v>
+        <v>0.175509344227104</v>
       </c>
       <c r="T19">
-        <v>0.1331711741150882</v>
+        <v>0.1851919151933176</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N20">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O20">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P20">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q20">
-        <v>27758.23009235534</v>
+        <v>44682.39478926169</v>
       </c>
       <c r="R20">
-        <v>27758.23009235534</v>
+        <v>402141.5531033552</v>
       </c>
       <c r="S20">
-        <v>0.1242720581176274</v>
+        <v>0.1313487655830655</v>
       </c>
       <c r="T20">
-        <v>0.1242720581176274</v>
+        <v>0.1385950677653409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N21">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O21">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P21">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q21">
-        <v>12478.7888213613</v>
+        <v>19839.23199652668</v>
       </c>
       <c r="R21">
-        <v>12478.7888213613</v>
+        <v>119035.3919791601</v>
       </c>
       <c r="S21">
-        <v>0.05586684613846808</v>
+        <v>0.0583195830292894</v>
       </c>
       <c r="T21">
-        <v>0.05586684613846808</v>
+        <v>0.04102465435494426</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N22">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O22">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P22">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q22">
-        <v>2178.281459790644</v>
+        <v>2859.03220164432</v>
       </c>
       <c r="R22">
-        <v>2178.281459790644</v>
+        <v>17154.19320986592</v>
       </c>
       <c r="S22">
-        <v>0.009752045403002988</v>
+        <v>0.008404436517320797</v>
       </c>
       <c r="T22">
-        <v>0.009752045403002988</v>
+        <v>0.005912063928817811</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N23">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O23">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P23">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q23">
-        <v>4182.231094412423</v>
+        <v>5415.285715319137</v>
       </c>
       <c r="R23">
-        <v>4182.231094412423</v>
+        <v>32491.71429191482</v>
       </c>
       <c r="S23">
-        <v>0.01872361688396353</v>
+        <v>0.01591882210748735</v>
       </c>
       <c r="T23">
-        <v>0.01872361688396353</v>
+        <v>0.01119802544489268</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N24">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O24">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P24">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q24">
-        <v>3995.805138860384</v>
+        <v>6144.00061939848</v>
       </c>
       <c r="R24">
-        <v>3995.805138860384</v>
+        <v>36864.00371639088</v>
       </c>
       <c r="S24">
-        <v>0.01788899821029753</v>
+        <v>0.01806095892813526</v>
       </c>
       <c r="T24">
-        <v>0.01788899821029753</v>
+        <v>0.01270490217622912</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N25">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O25">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P25">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q25">
-        <v>3728.786892079455</v>
+        <v>4598.085080047572</v>
       </c>
       <c r="R25">
-        <v>3728.786892079455</v>
+        <v>27588.51048028543</v>
       </c>
       <c r="S25">
-        <v>0.01669357231419311</v>
+        <v>0.01351657184353298</v>
       </c>
       <c r="T25">
-        <v>0.01669357231419311</v>
+        <v>0.009508173055116387</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N26">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O26">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P26">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q26">
-        <v>1676.286421407476</v>
+        <v>2041.5753692941</v>
       </c>
       <c r="R26">
-        <v>1676.286421407476</v>
+        <v>8166.301477176401</v>
       </c>
       <c r="S26">
-        <v>0.007504641430301781</v>
+        <v>0.006001433134152792</v>
       </c>
       <c r="T26">
-        <v>0.007504641430301781</v>
+        <v>0.00281445450709387</v>
       </c>
     </row>
   </sheetData>
